--- a/EtoS.xlsx
+++ b/EtoS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="167">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -99,6 +99,9 @@
     <t xml:space="preserve">UserId</t>
   </si>
   <si>
+    <t xml:space="preserve">UserRolesPID</t>
+  </si>
+  <si>
     <t xml:space="preserve">FirstName</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
     <t xml:space="preserve">EmailTypePID</t>
   </si>
   <si>
-    <t xml:space="preserve">UserRolesPID</t>
-  </si>
-  <si>
     <t xml:space="preserve">LastName</t>
   </si>
   <si>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">PhonePID</t>
   </si>
   <si>
-    <t xml:space="preserve">UserAddressPID</t>
+    <t xml:space="preserve">UserDetailAddressPID</t>
   </si>
   <si>
     <t xml:space="preserve">EmailPID</t>
@@ -390,7 +390,7 @@
     <t xml:space="preserve">salesTypePid</t>
   </si>
   <si>
-    <t xml:space="preserve">Transction</t>
+    <t xml:space="preserve">Transaction</t>
   </si>
   <si>
     <t xml:space="preserve">TransactionType</t>
@@ -408,7 +408,7 @@
     <t xml:space="preserve">TransactionStatePID</t>
   </si>
   <si>
-    <t xml:space="preserve">TransctionBroker</t>
+    <t xml:space="preserve">TransactionBroker</t>
   </si>
   <si>
     <t xml:space="preserve">FromUserPid</t>
@@ -523,9 +523,6 @@
   </si>
   <si>
     <t xml:space="preserve">UserDetailAddress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserDetailAddressPID</t>
   </si>
 </sst>
 </file>
@@ -764,8 +761,8 @@
   </sheetPr>
   <dimension ref="B3:AB106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O68" activeCellId="0" sqref="O68:P68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,7 +946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -965,36 +962,28 @@
       <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="J6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="L6" s="3"/>
       <c r="N6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="P6" s="3"/>
       <c r="R6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="S6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="T6" s="3"/>
       <c r="V6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1010,9 +999,7 @@
       <c r="AA6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="AB6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
@@ -1079,7 +1066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
@@ -1121,118 +1108,118 @@
         <v>23</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="J9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="V10" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="W10" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Z10" s="8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AA10" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>38</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="W12" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,7 +1264,7 @@
         <v>45</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,7 +1315,7 @@
         <v>53</v>
       </c>
       <c r="W16" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1336,7 +1323,7 @@
         <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -1354,7 +1341,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,7 +1482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
         <v>68</v>
       </c>
@@ -1511,9 +1498,7 @@
       <c r="H31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I31" s="3"/>
       <c r="K31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="9" t="s">
         <v>71</v>
       </c>
@@ -1532,7 +1517,9 @@
         <v>72</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="5" t="s">
         <v>14</v>
@@ -1553,7 +1540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="9" t="s">
         <v>73</v>
       </c>
@@ -1561,7 +1548,9 @@
         <v>72</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6" t="s">
         <v>55</v>
@@ -1596,6 +1585,9 @@
       </c>
       <c r="L35" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,7 +1716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="5" t="s">
         <v>5</v>
       </c>
@@ -1740,9 +1732,7 @@
       <c r="G45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H45" s="3"/>
       <c r="J45" s="5" t="s">
         <v>5</v>
       </c>
@@ -1833,7 +1823,7 @@
         <v>99</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>95</v>
@@ -1856,7 +1846,7 @@
         <v>100</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>95</v>
@@ -1920,7 +1910,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>90</v>
@@ -1965,7 +1955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="8" t="s">
         <v>109</v>
       </c>
@@ -1981,9 +1971,7 @@
       <c r="G56" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H56" s="3"/>
       <c r="J56" s="5" t="s">
         <v>5</v>
       </c>
@@ -2004,6 +1992,9 @@
       <c r="D57" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="E57" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="F57" s="5" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +2071,7 @@
         <v>102</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,18 +2205,14 @@
       <c r="K71" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="L71" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="L71" s="3"/>
       <c r="N71" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="P71" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="P71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1"/>
@@ -2290,7 +2277,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="5" t="s">
         <v>5</v>
       </c>
@@ -2306,6 +2293,9 @@
       <c r="G74" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="I74" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="J74" s="8" t="s">
         <v>75</v>
       </c>
@@ -2319,7 +2309,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="5" t="s">
         <v>14</v>
       </c>
@@ -2334,6 +2324,9 @@
       </c>
       <c r="G75" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,12 +2393,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1"/>
@@ -2425,16 +2423,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="5" t="s">
@@ -2513,8 +2509,8 @@
   </sheetPr>
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="O68:P68 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2631,36 +2627,28 @@
       <c r="C5" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="J5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="L5" s="3"/>
       <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
@@ -2708,7 +2696,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>18</v>
@@ -2731,25 +2719,25 @@
         <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2757,7 +2745,7 @@
         <v>156</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,8 +2855,8 @@
   </sheetPr>
   <dimension ref="B2:P193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="O68:P68 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2978,34 +2966,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="J5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="L5" s="3"/>
       <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3050,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>18</v>
@@ -3085,25 +3067,25 @@
         <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>75</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>163</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,13 +3093,13 @@
         <v>100</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>164</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,18 +3183,14 @@
       <c r="D18" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="G18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I18" s="3"/>
       <c r="L18" s="3" t="s">
         <v>65</v>
       </c>
@@ -3261,7 +3239,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>18</v>
@@ -3279,7 +3257,7 @@
         <v>99</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>76</v>
@@ -3294,13 +3272,16 @@
         <v>72</v>
       </c>
       <c r="N21" s="9"/>
+      <c r="O21" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>19</v>
@@ -3315,6 +3296,9 @@
         <v>72</v>
       </c>
       <c r="N22" s="9"/>
+      <c r="O22" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
